--- a/biology/Botanique/Rubus_rosaceus/Rubus_rosaceus.xlsx
+++ b/biology/Botanique/Rubus_rosaceus/Rubus_rosaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus rosaceus est une espèce de plantes à fleurs du genre Rubus (les ronces) et de la famille des Rosacées. Son nom botanique vient du latin, rosaceus, qui signifie rosacé, les fleurs étant d'un rose soutenu.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les turions sont rampants, obtusément anguleux à faces nettement convexes, d'une couleur rouge bordeaux foncé et un peu luisants, avec sur chaque face 0 à 3 poils et 4 à 8 glandes stipitées par cm (ces glandes portées par des stipes longs d'environ 0,5 mm), à micro-aiguillons épars à assez denses, peu à nettement reliés aux plus gros aiguillons par la présence d'aiguillons de tailles intermédiaires ; les plus gros aiguillons, au nombre de 7 à 15 par 5 cm de turion, sont larges, droits ou un peu courbés, d'une longueur atteignant 5 à 7 mm.
 Les pétioles, à face supérieure canaliculée seulement à la base, portent 10 à 22 aiguillons (pour les plus gros) qui sont courbés, longs de 2,5 à 3,5 mm.
@@ -546,7 +560,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le rencontre en fourrés, clairières et en lisières de forêts, sur des sols assez riches.
 </t>
@@ -577,7 +593,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est connue aux Pays-Bas (Sud de Limbourg), en Belgique (Ardennes et Hohes Venn), au Grand Duché de Luxembourg, en France (près de la frontière belge), et dans l'ouest de l'Allemagne (Rhénanie-du-Nord-Westphalie et Rhénanie-Palatinat).
 </t>
@@ -608,7 +626,9 @@
           <t>Propagation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se multiplie par apomixie et par marcottage.
 </t>
@@ -639,7 +659,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir ronces.
 </t>
@@ -670,7 +692,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Rubus aculeatissimus Kaltenbach</t>
         </is>
